--- a/datos_taller_con_errores_filtrado.xlsx
+++ b/datos_taller_con_errores_filtrado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FGM\Desktop\Taller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C6A27-D647-4DE0-8399-53577CFE2D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF7B178-221B-477F-B3DB-834C808645CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12600" yWindow="75" windowWidth="16200" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>CALVO SOTEL</t>
+  </si>
+  <si>
+    <t>TRAVESIA</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
